--- a/Hojas de Ruta/Reductores Paralelos/Wampfler K165.3-63-00/OT 26252 Evaluacion.xlsx
+++ b/Hojas de Ruta/Reductores Paralelos/Wampfler K165.3-63-00/OT 26252 Evaluacion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Item</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>Desarme Inicial Moto Reductor</t>
+  </si>
+  <si>
+    <t>Cargos</t>
   </si>
 </sst>
 </file>
@@ -85,10 +88,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,22 +402,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F6"/>
+      <selection activeCell="E7" sqref="E7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.28515625" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -427,8 +437,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -441,11 +454,17 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
+      <c r="E2" s="2">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="F2" s="2">
         <v>4.1666666666666664E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="4">
+        <v>0.42708333333333331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -458,11 +477,15 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
+      <c r="E3" s="2">
+        <v>3.125E-2</v>
+      </c>
       <c r="F3" s="2">
         <v>4.1666666666666664E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -475,11 +498,15 @@
       <c r="D4" t="s">
         <v>7</v>
       </c>
+      <c r="E4" s="2">
+        <v>1.0416666666666666E-2</v>
+      </c>
       <c r="F4" s="2">
         <v>4.1666666666666664E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -492,11 +519,15 @@
       <c r="D5" t="s">
         <v>7</v>
       </c>
+      <c r="E5" s="2">
+        <v>6.9444444444444441E-3</v>
+      </c>
       <c r="F5" s="2">
         <v>2.0833333333333332E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -509,11 +540,34 @@
       <c r="D6" t="s">
         <v>7</v>
       </c>
+      <c r="E6" s="2">
+        <v>0.25</v>
+      </c>
       <c r="F6" s="2">
         <v>0.33333333333333331</v>
       </c>
+      <c r="G6" s="2">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E7" s="2">
+        <f>SUM(E2:E6)</f>
+        <v>0.31944444444444442</v>
+      </c>
+      <c r="F7" s="2">
+        <f>SUM(F2:F6)</f>
+        <v>0.47916666666666663</v>
+      </c>
+      <c r="G7" s="2">
+        <f>SUM(G2:G6)</f>
+        <v>0.52083333333333326</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G2:G5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>